--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E27519-15F8-4B90-A9A5-C9A8839003BF}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097C554C-7ABE-4A99-801F-8B7CDB6DB585}"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="690" windowWidth="22275" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="38">
   <si>
     <t>country</t>
   </si>
@@ -49,78 +49,27 @@
     <t>Request_type</t>
   </si>
   <si>
-    <t>ethan.mitchell@mailinator.com</t>
-  </si>
-  <si>
-    <t>11/8/2004</t>
-  </si>
-  <si>
-    <t>5712345572</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>80209-3456</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>1625 Cherry Creek Drive, Apt 3C</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>request to delete my data</t>
   </si>
   <si>
-    <t>kiran</t>
-  </si>
-  <si>
     <t>request to copy of my data</t>
   </si>
   <si>
-    <t>kayal</t>
-  </si>
-  <si>
     <t>Opt out of search</t>
   </si>
   <si>
-    <t>amur</t>
-  </si>
-  <si>
     <t>Remove my parent's cc information</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Close/deactivate/cancel my College Board account</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>deletedsr</t>
-  </si>
-  <si>
-    <t>infodsr</t>
-  </si>
-  <si>
-    <t>optdsr</t>
-  </si>
-  <si>
-    <t>parentccdsr</t>
-  </si>
-  <si>
-    <t>closedsr</t>
-  </si>
-  <si>
     <t>Who is making this request</t>
   </si>
   <si>
@@ -133,15 +82,6 @@
     <t>Primary Email Address</t>
   </si>
   <si>
-    <t>palmone@mailinator.com</t>
-  </si>
-  <si>
-    <t>Parentone</t>
-  </si>
-  <si>
-    <t>ParentbehalfofStu</t>
-  </si>
-  <si>
     <t>Email of Child (Data Subject)</t>
   </si>
   <si>
@@ -160,29 +100,52 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>DSR test</t>
-  </si>
-  <si>
-    <t>inlinedatafordelete</t>
-  </si>
-  <si>
-    <t>Parenttwo</t>
-  </si>
-  <si>
-    <t>parentthree</t>
-  </si>
-  <si>
-    <t>Parentfour</t>
-  </si>
-  <si>
-    <t>Parentfive</t>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>robert.wilson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>567 Delaware Avenue
+Unit 4C</t>
+  </si>
+  <si>
+    <t>568 Delaware Avenue
+Unit 4C</t>
+  </si>
+  <si>
+    <t>569 Delaware Avenue
+Unit 4C</t>
+  </si>
+  <si>
+    <t>570 Delaware Avenue
+Unit 4C</t>
+  </si>
+  <si>
+    <t>571 Delaware Avenue
+Unit 4C</t>
+  </si>
+  <si>
+    <t>alexander.wilson@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +163,17 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,22 +215,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,385 +541,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="1" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="O23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="K24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="4">
+        <v>38324</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5712345576</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="4">
+        <v>19901</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
-    <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{629B9378-0792-4ED3-A58D-558A7B41F275}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="robert.wilson@mailinator.com" xr:uid="{ED9EB220-489E-47E5-B10E-B7C2D29DEA92}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{0654FEAA-2F0E-4B82-B559-EBC0E2BD8205}"/>
+    <hyperlink ref="E3:E6" r:id="rId4" display="alexander.wilson@mailinator.com" xr:uid="{DD716CB6-0A2A-4618-BEAB-7C0F73EBCA3A}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{A8180A5E-0F6E-4E57-B221-3AB799459794}"/>
+    <hyperlink ref="D22:D25" r:id="rId6" display="robert.wilson@mailinator.com" xr:uid="{B09CC1CB-227D-44D0-B326-FD48A0980CEB}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{B908C3AE-F251-4190-BA37-3785D0911FA1}"/>
+    <hyperlink ref="E22:E25" r:id="rId8" display="alexander.wilson@mailinator.com" xr:uid="{030E6791-4BED-4A4E-BA41-7E153014CDF4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097C554C-7ABE-4A99-801F-8B7CDB6DB585}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9C49427-0CBA-424D-BA25-F81E3975B0AD}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>country</t>
   </si>
@@ -139,6 +139,56 @@
   </si>
   <si>
     <t>alexander.wilson@mailinator.com</t>
+  </si>
+  <si>
+    <t>Joshualessthir</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>80209</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>12 adam Street
+Apt 15B</t>
+  </si>
+  <si>
+    <t>13 adam Street
+Apt 15B</t>
+  </si>
+  <si>
+    <t>14 adam Street
+Apt 15B</t>
+  </si>
+  <si>
+    <t>15 adam Street
+Apt 15B</t>
+  </si>
+  <si>
+    <t>16 adam Street
+Apt 15B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joshualessthir.kimberly@mailinator.com </t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>grace.kim@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -543,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +603,7 @@
     <col min="5" max="5" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -645,8 +695,8 @@
       <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4">
-        <v>38324</v>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="4">
         <v>5712345576</v>
@@ -701,8 +751,8 @@
       <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4">
-        <v>38324</v>
+      <c r="H3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="4">
         <v>5712345576</v>
@@ -757,8 +807,8 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4">
-        <v>38324</v>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I4" s="4">
         <v>5712345576</v>
@@ -813,8 +863,8 @@
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4">
-        <v>38324</v>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I5" s="4">
         <v>5712345576</v>
@@ -869,8 +919,8 @@
       <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4">
-        <v>38324</v>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="4">
         <v>5712345576</v>
@@ -964,43 +1014,41 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4">
-        <v>38324</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5712345576</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="4">
-        <v>19901</v>
+        <v>41</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>10</v>
@@ -1020,16 +1068,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>29</v>
@@ -1037,26 +1085,24 @@
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="4">
-        <v>38324</v>
-      </c>
-      <c r="I22" s="4">
-        <v>5712345576</v>
-      </c>
+      <c r="H22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="4">
-        <v>19901</v>
+        <v>41</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>10</v>
@@ -1076,16 +1122,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>29</v>
@@ -1093,26 +1139,24 @@
       <c r="G23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="4">
-        <v>38324</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5712345576</v>
-      </c>
+      <c r="H23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="4">
-        <v>19901</v>
+        <v>41</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>10</v>
@@ -1132,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>29</v>
@@ -1149,26 +1193,24 @@
       <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="4">
-        <v>38324</v>
-      </c>
-      <c r="I24" s="4">
-        <v>5712345576</v>
-      </c>
+      <c r="H24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="4">
-        <v>19901</v>
+        <v>41</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>10</v>
@@ -1188,16 +1230,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>29</v>
@@ -1205,26 +1247,24 @@
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4">
-        <v>38324</v>
-      </c>
-      <c r="I25" s="4">
-        <v>5712345576</v>
-      </c>
+      <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="4">
-        <v>19901</v>
+        <v>41</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>10</v>
@@ -1246,10 +1286,10 @@
     <hyperlink ref="D3:D6" r:id="rId2" display="robert.wilson@mailinator.com" xr:uid="{ED9EB220-489E-47E5-B10E-B7C2D29DEA92}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{0654FEAA-2F0E-4B82-B559-EBC0E2BD8205}"/>
     <hyperlink ref="E3:E6" r:id="rId4" display="alexander.wilson@mailinator.com" xr:uid="{DD716CB6-0A2A-4618-BEAB-7C0F73EBCA3A}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{A8180A5E-0F6E-4E57-B221-3AB799459794}"/>
-    <hyperlink ref="D22:D25" r:id="rId6" display="robert.wilson@mailinator.com" xr:uid="{B09CC1CB-227D-44D0-B326-FD48A0980CEB}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{B908C3AE-F251-4190-BA37-3785D0911FA1}"/>
-    <hyperlink ref="E22:E25" r:id="rId8" display="alexander.wilson@mailinator.com" xr:uid="{030E6791-4BED-4A4E-BA41-7E153014CDF4}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{FA7E7D93-5948-430D-B008-163FCE58969E}"/>
+    <hyperlink ref="E22:E25" r:id="rId6" display="joshualessthir.kimberly@mailinator.com " xr:uid="{BC27DC1C-A5F6-466C-BE2D-F03ADEF7E33A}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{0501ECA1-5574-4819-833C-84402C579900}"/>
+    <hyperlink ref="D22:D25" r:id="rId8" display="grace.kim@mailinator.com" xr:uid="{5AB0DCD6-85BD-423F-BECA-E43AC63F4668}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A270799-F30E-4B79-9143-CA9A0DA326CB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D043E6-E9EF-4151-8E3A-CC2D77F1375C}"/>
   <bookViews>
     <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="45">
   <si>
     <t>Who is making this request</t>
   </si>
@@ -522,13 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -851,71 +855,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
@@ -1023,6 +962,221 @@
       </c>
       <c r="R21" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>5713456789</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D043E6-E9EF-4151-8E3A-CC2D77F1375C}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186B73BB-006C-4846-A9E3-A3B0D0BE4E2D}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="1185" windowWidth="24870" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,10 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,12 +533,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -911,7 +923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -928,10 +940,10 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -948,8 +960,8 @@
       <c r="M21" t="s">
         <v>39</v>
       </c>
-      <c r="N21" t="s">
-        <v>41</v>
+      <c r="N21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
@@ -964,7 +976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -981,10 +993,10 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -1004,8 +1016,8 @@
       <c r="M22" t="s">
         <v>39</v>
       </c>
-      <c r="N22" t="s">
-        <v>42</v>
+      <c r="N22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
@@ -1020,7 +1032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1037,10 +1049,10 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
@@ -1057,8 +1069,8 @@
       <c r="M23" t="s">
         <v>39</v>
       </c>
-      <c r="N23" t="s">
-        <v>43</v>
+      <c r="N23" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="O23" t="s">
         <v>23</v>
@@ -1073,7 +1085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1122,7 @@
       <c r="M24" t="s">
         <v>39</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O24" t="s">
@@ -1126,7 +1138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1143,10 +1155,10 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>21</v>
@@ -1163,8 +1175,8 @@
       <c r="M25" t="s">
         <v>39</v>
       </c>
-      <c r="N25" t="s">
-        <v>44</v>
+      <c r="N25" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>
@@ -1180,6 +1192,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186B73BB-006C-4846-A9E3-A3B0D0BE4E2D}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC04DB88-5003-46A4-9DA0-B6C5965C78A6}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="1185" windowWidth="24870" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29175" yWindow="885" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
   <si>
     <t>Who is making this request</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Close/deactivate/cancel my College Board account</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date of Birth</t>
   </si>
   <si>
     <t>Phone Number</t>
@@ -160,13 +157,46 @@
   <si>
     <t>16 adam Street
 Apt 15B</t>
+  </si>
+  <si>
+    <t>First_Name_of parent_guardian</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>maria.martinez.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>sophia.martinez13@mailinator.com</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Thornton</t>
+  </si>
+  <si>
+    <t>2468 Pine Ridge Circle, Apt 7B</t>
+  </si>
+  <si>
+    <t>2469 Pine Ridge Circle, Apt 7B</t>
+  </si>
+  <si>
+    <t>2470 Pine Ridge Circle, Apt 7B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,9 +208,30 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,19 +269,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,17 +594,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -603,596 +672,620 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="L21" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I22" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22">
-        <v>5713456789</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="L22" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="L23" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I24" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="L24" s="4">
+        <v>80242</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I25" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="L25" s="4">
+        <v>80243</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8B334B03-F363-479A-A78E-5E60FA07DA6D}"/>
+    <hyperlink ref="D22" r:id="rId2" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{07163D18-2D19-4D0E-B47D-DA3392D7C37A}"/>
+    <hyperlink ref="D23" r:id="rId3" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1B558A0E-E458-47CC-A88B-C8F8A2407CEA}"/>
+    <hyperlink ref="E21" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4490920-BE2F-4983-AD88-F938686BB813}"/>
+    <hyperlink ref="E22" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{3DD814F0-3B72-4C6D-A05F-D27665615C38}"/>
+    <hyperlink ref="E23" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{27888790-58EB-4E84-B2F8-6E6E5644B82C}"/>
+    <hyperlink ref="D24" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1DF565CF-6370-4CC5-B9A6-A9E71B495F25}"/>
+    <hyperlink ref="D25" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{A38619BD-2747-493D-96C6-18E7F6E9B0A7}"/>
+    <hyperlink ref="E24" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{4F8E5754-95E6-491B-AEEE-0EEA6C3D9B51}"/>
+    <hyperlink ref="E25" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C90624F3-CE27-45B8-92E4-A211723EE927}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC04DB88-5003-46A4-9DA0-B6C5965C78A6}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B5023F-5E09-4907-BADE-6DA71DDC174F}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="885" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="495" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,7 +595,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B5023F-5E09-4907-BADE-6DA71DDC174F}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BD94A6-C607-413D-A13C-BEC6D2A9A7D9}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="495" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27975" yWindow="285" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>Who is making this request</t>
   </si>
@@ -79,18 +79,6 @@
     <t>Parent on behalf of child</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>04/25/2014</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -112,51 +100,7 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>grace.kim@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joshualessthir.kimberly@mailinator.com </t>
-  </si>
-  <si>
-    <t>Joshualessthir</t>
-  </si>
-  <si>
-    <t>Kimberly</t>
-  </si>
-  <si>
     <t>Colorado</t>
-  </si>
-  <si>
-    <t>80209</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>12 adam Street
-Apt 15B</t>
-  </si>
-  <si>
-    <t>13 adam Street
-Apt 15B</t>
-  </si>
-  <si>
-    <t>14 adam Street
-Apt 15B</t>
-  </si>
-  <si>
-    <t>15 adam Street
-Apt 15B</t>
-  </si>
-  <si>
-    <t>16 adam Street
-Apt 15B</t>
   </si>
   <si>
     <t>First_Name_of parent_guardian</t>
@@ -592,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,269 +615,284 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4">
+        <v>80241</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4">
+        <v>80242</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6">
+        <v>40983</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7205551357</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4">
+        <v>80243</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -941,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -962,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>9</v>
@@ -997,22 +956,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H21" s="6">
         <v>40983</v>
@@ -1021,270 +980,48 @@
         <v>7205551357</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L21" s="4">
         <v>80241</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="6">
-        <v>40983</v>
-      </c>
-      <c r="I22" s="4">
-        <v>7205551357</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="4">
-        <v>80241</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="6">
-        <v>40983</v>
-      </c>
-      <c r="I23" s="4">
-        <v>7205551357</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="4">
-        <v>80241</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="6">
-        <v>40983</v>
-      </c>
-      <c r="I24" s="4">
-        <v>7205551357</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="4">
-        <v>80242</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="6">
-        <v>40983</v>
-      </c>
-      <c r="I25" s="4">
-        <v>7205551357</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="4">
-        <v>80243</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8B334B03-F363-479A-A78E-5E60FA07DA6D}"/>
-    <hyperlink ref="D22" r:id="rId2" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{07163D18-2D19-4D0E-B47D-DA3392D7C37A}"/>
-    <hyperlink ref="D23" r:id="rId3" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1B558A0E-E458-47CC-A88B-C8F8A2407CEA}"/>
-    <hyperlink ref="E21" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4490920-BE2F-4983-AD88-F938686BB813}"/>
-    <hyperlink ref="E22" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{3DD814F0-3B72-4C6D-A05F-D27665615C38}"/>
-    <hyperlink ref="E23" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{27888790-58EB-4E84-B2F8-6E6E5644B82C}"/>
-    <hyperlink ref="D24" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1DF565CF-6370-4CC5-B9A6-A9E71B495F25}"/>
-    <hyperlink ref="D25" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{A38619BD-2747-493D-96C6-18E7F6E9B0A7}"/>
-    <hyperlink ref="E24" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{4F8E5754-95E6-491B-AEEE-0EEA6C3D9B51}"/>
-    <hyperlink ref="E25" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C90624F3-CE27-45B8-92E4-A211723EE927}"/>
+    <hyperlink ref="E21" r:id="rId2" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4490920-BE2F-4983-AD88-F938686BB813}"/>
+    <hyperlink ref="D2" r:id="rId3" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{4DDFC74F-6ECD-4A77-89B3-F32C7E2129E0}"/>
+    <hyperlink ref="D3" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{77C4EC17-F9AD-49C4-AB40-FE948F82C677}"/>
+    <hyperlink ref="D4" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F7B89CB9-FABD-4E89-803E-3274E64787B2}"/>
+    <hyperlink ref="E2" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6826F1A5-A49F-46AA-A6C3-633D36B19023}"/>
+    <hyperlink ref="E3" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{61FE718A-6119-43BF-9AAF-A7C21E4DB640}"/>
+    <hyperlink ref="E4" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C657039B-9280-4E36-98AE-782F9E9C5D2D}"/>
+    <hyperlink ref="D5" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8C60CE04-4900-4E26-B47E-5CDF72FAE742}"/>
+    <hyperlink ref="D6" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D0BDB5AB-0784-4BF3-B71F-76F45B644036}"/>
+    <hyperlink ref="E5" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{DE8F7523-B468-4186-8DDE-976BB13C80F4}"/>
+    <hyperlink ref="E6" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{36B92E3C-A352-4919-BE54-7952B2849D11}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/Domestic_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BD94A6-C607-413D-A13C-BEC6D2A9A7D9}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_3B8933ABD3A05F51977A2311595ED87656CD0987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC762202-B189-42C6-9AAD-B576BE1A466D}"/>
   <bookViews>
-    <workbookView xWindow="27975" yWindow="285" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="975" windowWidth="31650" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>Who is making this request</t>
   </si>
@@ -134,13 +134,25 @@
   </si>
   <si>
     <t>2470 Pine Ridge Circle, Apt 7B</t>
+  </si>
+  <si>
+    <t>Deaunder</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>deaunder@mailinator.com</t>
+  </si>
+  <si>
+    <t>2468 Pine Ridge Circle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,24 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,9 +210,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,18 +220,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +549,9 @@
     <col min="10" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="46.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -615,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -625,10 +620,10 @@
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -637,7 +632,7 @@
       <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>40983</v>
       </c>
       <c r="I2" s="4">
@@ -671,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -681,10 +676,10 @@
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -693,7 +688,7 @@
       <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>40983</v>
       </c>
       <c r="I3" s="4">
@@ -727,7 +722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -737,10 +732,10 @@
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -749,7 +744,7 @@
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>40983</v>
       </c>
       <c r="I4" s="4">
@@ -783,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -793,10 +788,10 @@
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -805,7 +800,7 @@
       <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>40983</v>
       </c>
       <c r="I5" s="4">
@@ -839,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -849,10 +844,10 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -861,7 +856,7 @@
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>40983</v>
       </c>
       <c r="I6" s="4">
@@ -951,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -961,24 +956,22 @@
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>32</v>
+      <c r="E21" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="6">
+        <v>39</v>
+      </c>
+      <c r="H21" s="5">
         <v>40983</v>
       </c>
-      <c r="I21" s="4">
-        <v>7205551357</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
         <v>33</v>
       </c>
@@ -992,7 +985,7 @@
         <v>34</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>19</v>
@@ -1004,25 +997,11 @@
         <v>19</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8B334B03-F363-479A-A78E-5E60FA07DA6D}"/>
-    <hyperlink ref="E21" r:id="rId2" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4490920-BE2F-4983-AD88-F938686BB813}"/>
-    <hyperlink ref="D2" r:id="rId3" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{4DDFC74F-6ECD-4A77-89B3-F32C7E2129E0}"/>
-    <hyperlink ref="D3" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{77C4EC17-F9AD-49C4-AB40-FE948F82C677}"/>
-    <hyperlink ref="D4" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{F7B89CB9-FABD-4E89-803E-3274E64787B2}"/>
-    <hyperlink ref="E2" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6826F1A5-A49F-46AA-A6C3-633D36B19023}"/>
-    <hyperlink ref="E3" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{61FE718A-6119-43BF-9AAF-A7C21E4DB640}"/>
-    <hyperlink ref="E4" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C657039B-9280-4E36-98AE-782F9E9C5D2D}"/>
-    <hyperlink ref="D5" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8C60CE04-4900-4E26-B47E-5CDF72FAE742}"/>
-    <hyperlink ref="D6" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D0BDB5AB-0784-4BF3-B71F-76F45B644036}"/>
-    <hyperlink ref="E5" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{DE8F7523-B468-4186-8DDE-976BB13C80F4}"/>
-    <hyperlink ref="E6" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{36B92E3C-A352-4919-BE54-7952B2849D11}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>